--- a/target/classes/companies/communications/Cisco/CSCO_Cisco.xlsx
+++ b/target/classes/companies/communications/Cisco/CSCO_Cisco.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9784E692-4DC0-4047-ABF2-FEBFE72C28A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2053819408727138</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16658181663909041</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18268546205325359</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21806404451032549</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2001666493073638</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2298803973241437E-3</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22389411220715166</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22745988925173932</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21259384158336345</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22910565005721822</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.28094718867652807</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24996818123965892</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26874961860010982</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30072897841492885</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29703155921258201</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29395905128724914</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31049630086313196</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31293482890813573</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29497370428359226</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3089008282095545</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24430637562491</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23946799032709687</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.230813042859177</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25311186468211261</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26911780022914278</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26132171092641393</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28791615289765721</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30090667532098742</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29688064554980126</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24904474659115153</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.189999580383301</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.920000076293945</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.439999580383301</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.460000038146973</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.950000762939453</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139.77000427246094</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.030000686645508</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.120000839233398</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.559999465942383</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.200000762939453</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.2700004577636719</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.909999847412109</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.869999885559082</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.329999923706055</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.539999961853027</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.449999809265137</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.380000114440918</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.930000305175781</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.149999618530273</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.399999618530273</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8600000143051147</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4900000095367432</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1099998950958252</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8999999761581421</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9999999552965164E-2</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6099998950958252</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6400001049041748</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8199999332427979</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>48607</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47142</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49161</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49247</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48005</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49330</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51904</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49301</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49818</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51557</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12928</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20337</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21457</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24483</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25725</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20331</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14475</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11578</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9018</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8416</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13656</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11784</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13212</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14810</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14259</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14501</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16116</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15428</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14695</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15926</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.94669009958992389</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7258146639511203</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6240538904026642</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6531397704253883</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8041237113402062</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4020412385352734</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89817572598659712</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75045372050816694</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61367812181013948</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52844405374858716</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11875</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11289</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11347</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12465</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12919</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12891</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14944</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14835</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14790</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12840</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3310</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3758</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4086</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4750</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5511</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5968</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5979</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6016</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6163</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6224</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27873684210526317</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3328904243068474</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36009517934255753</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38106698756518254</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42658100472172766</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46295865332402453</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40009368308351179</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40552746882372764</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41670047329276538</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48473520249221186</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35670</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37956</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40005</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42933</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46115</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46947</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50038</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51280</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58385</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57285</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65521</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67114</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73368</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78719</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83703</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61837</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47755</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43573</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39112</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36717</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21996</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19809</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23412</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24911</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27583</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27035</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31712</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25331</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26257</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25640</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20067</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28600</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30254</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33156</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36098</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38545</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32510</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31602</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29965</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28589</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>59128</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56661</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59707</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63585</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66137</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43204</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33571</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37920</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41275</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39773</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42063</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48409</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53666</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58067</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63681</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65580</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64222</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56933</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56222</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54229</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.711388851305642</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85436190677891322</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89882258361666134</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91321852638200829</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9628649621240758</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5179150078696417</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9130201662148878</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5013976793248944</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3621320411871594</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3634626505418248</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65521</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67114</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73368</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78719</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83703</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61837</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47755</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43573</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39112</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36717</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21996</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19809</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23412</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24911</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27583</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27035</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31712</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25331</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26257</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25640</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.9787688670667394</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3880559341713363</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1337775499743721</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1600096342981012</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0345865206830296</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.287294248196782</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5058968213925328</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7201452765386285</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4895837300529382</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4320202808112326</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13656</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11784</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13212</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14810</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14259</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14501</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16116</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15428</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14695</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15926</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9983</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7853</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8981</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10739</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9609</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11621</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11214</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10591</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11812</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11875</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11289</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11347</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12465</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12919</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12891</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14944</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14835</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14790</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12840</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.8655018726961892</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4740649091082139</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.921639190989036</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8276394962680431</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4019011231108163</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10111781144285924</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.883263628276053</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.822504296121366</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.862898345590121</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.565690091700176</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.88370991746719</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.859621256243271</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0417873951128</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.889203428481562</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.528932367661067</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2546060549949079</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.616186589616035</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.572784810126581</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.659600242277406</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.698539210016847</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.880000114440918</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.140000343322754</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.850000381469727</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.810000419616699</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.619999885559082</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.36000001430511475</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.739999771118164</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.770000457763672</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.840000152587891</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.959999084472656</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5380</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5281</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5146</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5088</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5049</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4881</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4453</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4254</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4236</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4192</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18685,23 +18694,23 @@
   <dimension ref="B2:V47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,47 +18864,47 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
-        <v>9.4470948346261157</v>
-      </c>
-      <c r="G12" s="119">
+        <v>9.447094834626116</v>
+      </c>
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
-        <v>9.8655018726961892</v>
-      </c>
-      <c r="H12" s="119">
+        <v>9.86550187269619</v>
+      </c>
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
-        <v>7.4740649091082139</v>
-      </c>
-      <c r="I12" s="119">
+        <v>7.474064909108214</v>
+      </c>
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
         <v>7.921639190989036</v>
       </c>
-      <c r="J12" s="119">
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
-        <v>8.8276394962680431</v>
-      </c>
-      <c r="K12" s="119">
+        <v>8.827639496268043</v>
+      </c>
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
-        <v>7.4019011231108163</v>
-      </c>
-      <c r="L12" s="119">
+        <v>7.401901123110816</v>
+      </c>
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
         <v>0.10111781144285924</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
         <v>11.883263628276053</v>
       </c>
-      <c r="N12" s="119">
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
         <v>11.822504296121366</v>
       </c>
-      <c r="O12" s="119">
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
         <v>10.862898345590121</v>
       </c>
-      <c r="P12" s="119">
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
         <v>12.565690091700176</v>
       </c>
@@ -18929,47 +18938,47 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
         <v>23.960343381406354</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
         <v>16.88370991746719</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
-        <v>13.859621256243271</v>
-      </c>
-      <c r="I14" s="40">
+        <v>13.85962125624327</v>
+      </c>
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
         <v>15.0417873951128</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
-        <v>16.889203428481562</v>
-      </c>
-      <c r="K14" s="40">
+        <v>16.88920342848156</v>
+      </c>
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
         <v>14.528932367661067</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
         <v>0.2546060549949079</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
         <v>34.616186589616035</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
-        <v>29.572784810126581</v>
-      </c>
-      <c r="O14" s="40">
+        <v>29.57278481012658</v>
+      </c>
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>25.659600242277406</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
         <v>29.698539210016847</v>
       </c>
@@ -19006,51 +19015,51 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>9.5911126522818302E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.0959111265228183</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
         <v>15.989999890327454</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
         <v>13.880000114440918</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
         <v>10.140000343322754</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
         <v>10.850000381469727</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
-        <v>11.810000419616699</v>
-      </c>
-      <c r="K16" s="40">
+        <v>11.8100004196167</v>
+      </c>
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
         <v>9.619999885559082</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
         <v>-0.36000001430511475</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
         <v>17.739999771118164</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
         <v>19.770000457763672</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
-        <v>19.840000152587891</v>
-      </c>
-      <c r="P16" s="40">
+        <v>19.84000015258789</v>
+      </c>
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
         <v>22.959999084472656</v>
       </c>
@@ -19093,47 +19102,47 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
-        <v>1.6869880713984231</v>
-      </c>
-      <c r="G18" s="42">
+        <v>1.686988071398423</v>
+      </c>
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
         <v>2.9787688670667394</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
         <v>3.3880559341713363</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
-        <v>3.1337775499743721</v>
-      </c>
-      <c r="J18" s="42">
+        <v>3.133777549974372</v>
+      </c>
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
         <v>3.1600096342981012</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
         <v>3.0345865206830296</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
         <v>2.287294248196782</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
         <v>1.5058968213925328</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
         <v>1.7201452765386285</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
         <v>1.4895837300529382</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
         <v>1.4320202808112326</v>
       </c>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="55" t="str">
         <f>U11</f>
@@ -19175,47 +19184,47 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
         <v>1.5315855090276815</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
         <v>0.711388851305642</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
-        <v>0.85436190677891322</v>
-      </c>
-      <c r="I20" s="42">
+        <v>0.8543619067789132</v>
+      </c>
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
-        <v>0.89882258361666134</v>
-      </c>
-      <c r="J20" s="42">
+        <v>0.8988225836166613</v>
+      </c>
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
-        <v>0.91321852638200829</v>
-      </c>
-      <c r="K20" s="42">
+        <v>0.9132185263820083</v>
+      </c>
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
         <v>0.9628649621240758</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
         <v>1.5179150078696417</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>1.9130201662148878</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>1.5013976793248944</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>1.3621320411871594</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
         <v>1.3634626505418248</v>
       </c>
@@ -19248,58 +19257,58 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
-        <v>0.83855857211775275</v>
-      </c>
-      <c r="G22" s="42">
+        <v>0.8385585721177528</v>
+      </c>
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
-        <v>0.94669009958992389</v>
-      </c>
-      <c r="H22" s="42">
+        <v>0.9466900995899239</v>
+      </c>
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
         <v>1.7258146639511203</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
         <v>1.6240538904026642</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
         <v>1.6531397704253883</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
         <v>1.8041237113402062</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
         <v>1.4020412385352734</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
-        <v>0.89817572598659712</v>
-      </c>
-      <c r="N22" s="42">
+        <v>0.8981757259865971</v>
+      </c>
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
-        <v>0.75045372050816694</v>
-      </c>
-      <c r="O22" s="42">
+        <v>0.7504537205081669</v>
+      </c>
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
-        <v>0.61367812181013948</v>
-      </c>
-      <c r="P22" s="42">
+        <v>0.6136781218101395</v>
+      </c>
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
-        <v>0.52844405374858716</v>
+        <v>0.5284440537485872</v>
       </c>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -19342,45 +19351,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
-        <v>5380</v>
-      </c>
-      <c r="H24" s="40">
+        <v>5380.0</v>
+      </c>
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
-        <v>5281</v>
-      </c>
-      <c r="I24" s="40">
+        <v>5281.0</v>
+      </c>
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
-        <v>5146</v>
-      </c>
-      <c r="J24" s="40">
+        <v>5146.0</v>
+      </c>
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
-        <v>5088</v>
-      </c>
-      <c r="K24" s="40">
+        <v>5088.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>5049</v>
-      </c>
-      <c r="L24" s="40">
+        <v>5049.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
-        <v>4881</v>
-      </c>
-      <c r="M24" s="40">
+        <v>4881.0</v>
+      </c>
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
-        <v>4453</v>
-      </c>
-      <c r="N24" s="40">
+        <v>4453.0</v>
+      </c>
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
-        <v>4254</v>
-      </c>
-      <c r="O24" s="40">
+        <v>4254.0</v>
+      </c>
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>4236</v>
-      </c>
-      <c r="P24" s="40">
+        <v>4236.0</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
-        <v>4192</v>
+        <v>4192.0</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19420,49 +19429,49 @@
         <v>L</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
         <v>19.477500438690186</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
-        <v>12.189999580383301</v>
-      </c>
-      <c r="H26" s="44">
+        <v>12.1899995803833</v>
+      </c>
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>18.920000076293945</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
-        <v>14.439999580383301</v>
-      </c>
-      <c r="J26" s="44">
+        <v>14.4399995803833</v>
+      </c>
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>14.460000038146973</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
         <v>19.950000762939453</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
         <v>139.77000427246094</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>19.030000686645508</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
-        <v>18.120000839233398</v>
-      </c>
-      <c r="O26" s="44">
+        <v>18.1200008392334</v>
+      </c>
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>23.559999465942383</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
         <v>17.200000762939453</v>
       </c>
@@ -19502,49 +19511,49 @@
         <v>L</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>14.461999893188477</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
-        <v>9.2700004577636719</v>
-      </c>
-      <c r="H28" s="44">
+        <v>9.270000457763672</v>
+      </c>
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
-        <v>11.909999847412109</v>
-      </c>
-      <c r="I28" s="44">
+        <v>11.90999984741211</v>
+      </c>
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
         <v>10.869999885559082</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
         <v>11.329999923706055</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>13.539999961853027</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
         <v>14.449999809265137</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
         <v>13.380000114440918</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
         <v>11.930000305175781</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
         <v>18.149999618530273</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
         <v>14.399999618530273</v>
       </c>
@@ -19582,7 +19591,7 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
         <v>2.0999999046325684</v>
       </c>
@@ -19618,9 +19627,9 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
-        <v>-7.9250484185511283E-4</v>
+        <v>-7.925048418551128E-4</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="18.5">
@@ -19635,9 +19644,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
-        <v>7.8435959217144635E-3</v>
+        <v>0.007843595921714464</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>1.8923905972873856E-2</v>
+        <v>0.018923905972873856</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,9 +19685,9 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
-        <v>3.1232616367195876E-2</v>
+        <v>0.031232616367195876</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -19701,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>1.5479221284606881</v>
+        <v>1.547922128460688</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19718,9 +19727,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
-        <v>1.6965539219843784E-2</v>
+        <v>0.016965539219843784</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>8.8702246389578132E-3</v>
+        <v>0.008870224638957813</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>5.9094360602989227E-3</v>
+        <v>0.005909436060298923</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,9 +19790,9 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
-        <v>0.43400309620324828</v>
+        <v>0.4340030962032483</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19798,9 +19807,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>8.4355653455541191E-3</v>
+        <v>0.008435565345554119</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19815,9 +19824,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>2.5057833160197697E-2</v>
+        <v>0.025057833160197697</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19832,9 +19841,9 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
-        <v>3.3493398505751816E-2</v>
+        <v>0.033493398505751816</v>
       </c>
     </row>
   </sheetData>
@@ -19856,13 +19865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19880,9 +19889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,56 +19927,56 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
-        <v>207.33000183105469</v>
+      <c r="C5" s="58" t="n">
+        <v>207.3300018310547</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>25640000</v>
+      <c r="C6" s="59" t="n">
+        <v>2.564E7</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>28589000</v>
+      <c r="C7" s="59" t="n">
+        <v>2.8589E7</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>390000</v>
+      <c r="C8" s="59" t="n">
+        <v>390000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>14107000</v>
+      <c r="C9" s="59" t="n">
+        <v>1.4107E7</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>2805000</v>
+      <c r="C10" s="59" t="n">
+        <v>2805000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
-        <v>0.99000000953674316</v>
+      <c r="C11" s="60" t="n">
+        <v>0.9900000095367432</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,25 +20009,25 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>54229000</v>
+        <v>5.4229E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>7.1917239853215072E-3</v>
+        <v>0.007191723985321507</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
         <v>0.11913000082969664</v>
       </c>
@@ -20027,11 +20036,11 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>7.1917239853215072E-3</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.007191723985321507</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>261559001.83105499</v>
-      </c>
-      <c r="K21" t="s">
+        <v>2.61559001831055E8</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
-        <v>0.79267010647552727</v>
-      </c>
-      <c r="K22" t="s">
+        <v>0.7926701064755273</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,7 +20072,7 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
         <v>0.20732989352447273</v>
       </c>
@@ -20079,9 +20088,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>9.5911126522818302E-2</v>
+        <v>0.0959111265228183</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20114,20 +20123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20149,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>9.5911126522818302E-2</v>
+        <v>0.0959111265228183</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,24 +20166,24 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>2.9999999329447746E-2</v>
+      <c r="C6" s="65" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="13" t="n">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
-        <v>0.18681632868795439</v>
+        <v>0.1868163286879544</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
         <v>1.2764494441552279</v>
       </c>
@@ -20183,7 +20192,7 @@
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="66" t="n">
         <v>11.510000228881836</v>
       </c>
     </row>
@@ -20191,16 +20200,16 @@
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>3.9999999105930328E-2</v>
+      <c r="C10" s="67" t="n">
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>4108844288</v>
+      <c r="C11" s="59" t="n">
+        <v>4.108844288E9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,45 +20259,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
-        <v>48607</v>
-      </c>
-      <c r="D16" s="21">
+        <v>48607.0</v>
+      </c>
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
-        <v>47142</v>
-      </c>
-      <c r="E16" s="21">
+        <v>47142.0</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
-        <v>49161</v>
-      </c>
-      <c r="F16" s="21">
+        <v>49161.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
-        <v>49247</v>
-      </c>
-      <c r="G16" s="21">
+        <v>49247.0</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
-        <v>48005</v>
-      </c>
-      <c r="H16" s="21">
+        <v>48005.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
-        <v>49330</v>
-      </c>
-      <c r="I16" s="21">
+        <v>49330.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
-        <v>51904</v>
-      </c>
-      <c r="J16" s="21">
+        <v>51904.0</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>49301</v>
-      </c>
-      <c r="K16" s="21">
+        <v>49301.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
-        <v>49818</v>
-      </c>
-      <c r="L16" s="21">
+        <v>49818.0</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
-        <v>51557</v>
+        <v>51557.0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20296,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>-3.0139691813936265E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>-0.030139691813936265</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>4.2828051419116712E-2</v>
-      </c>
-      <c r="F17" s="20">
+        <v>0.04282805141911671</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>1.7493541628526678E-3</v>
-      </c>
-      <c r="G17" s="20">
+        <v>0.0017493541628526678</v>
+      </c>
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-2.5219810343777287E-2</v>
-      </c>
-      <c r="H17" s="20">
+        <v>-0.025219810343777287</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>2.7601291532132071E-2</v>
-      </c>
-      <c r="I17" s="20">
+        <v>0.02760129153213207</v>
+      </c>
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>5.2179201297384958E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>0.05217920129738496</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-5.0150277435265102E-2</v>
-      </c>
-      <c r="K17" s="20">
+        <v>-0.0501502774352651</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>1.0486602705827469E-2</v>
-      </c>
-      <c r="L17" s="20">
+        <v>0.010486602705827469</v>
+      </c>
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>3.490706170460476E-2</v>
+        <v>0.03490706170460476</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20350,45 +20359,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
-        <v>9983</v>
-      </c>
-      <c r="D19" s="21">
+        <v>9983.0</v>
+      </c>
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
-        <v>7853</v>
-      </c>
-      <c r="E19" s="21">
+        <v>7853.0</v>
+      </c>
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>8981</v>
-      </c>
-      <c r="F19" s="21">
+        <v>8981.0</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
-        <v>10739</v>
-      </c>
-      <c r="G19" s="21">
+        <v>10739.0</v>
+      </c>
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
-        <v>9609</v>
-      </c>
-      <c r="H19" s="21">
+        <v>9609.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
-        <v>110</v>
-      </c>
-      <c r="I19" s="21">
+        <v>110.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>11621</v>
-      </c>
-      <c r="J19" s="21">
+        <v>11621.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
-        <v>11214</v>
-      </c>
-      <c r="K19" s="21">
+        <v>11214.0</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
-        <v>10591</v>
-      </c>
-      <c r="L19" s="21">
+        <v>10591.0</v>
+      </c>
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>11812</v>
+        <v>11812.0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20396,39 +20405,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
-        <v>-0.21336271661825101</v>
-      </c>
-      <c r="E20" s="20">
+        <v>-0.213362716618251</v>
+      </c>
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
         <v>0.14363937348783903</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.19574657610511079</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0.1957465761051108</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>-0.10522395008846261</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.98855239879279844</v>
-      </c>
-      <c r="I20" s="20">
+        <v>-0.9885523987927984</v>
+      </c>
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>104.64545454545454</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-3.502280354530591E-2</v>
-      </c>
-      <c r="K20" s="20">
+        <v>-0.03502280354530591</v>
+      </c>
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-5.5555555555555552E-2</v>
-      </c>
-      <c r="L20" s="20">
+        <v>-0.05555555555555555</v>
+      </c>
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.11528656406382778</v>
       </c>
@@ -20437,45 +20446,45 @@
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>11875</v>
-      </c>
-      <c r="D22" s="25">
+        <v>11875.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
-        <v>11289</v>
-      </c>
-      <c r="E22" s="25">
+        <v>11289.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>11347</v>
-      </c>
-      <c r="F22" s="25">
+        <v>11347.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>12465</v>
-      </c>
-      <c r="G22" s="25">
+        <v>12465.0</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
-        <v>12919</v>
-      </c>
-      <c r="H22" s="25">
+        <v>12919.0</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>12891</v>
-      </c>
-      <c r="I22" s="25">
+        <v>12891.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>14944</v>
-      </c>
-      <c r="J22" s="25">
+        <v>14944.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>14835</v>
-      </c>
-      <c r="K22" s="25">
+        <v>14835.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>14790</v>
-      </c>
-      <c r="L22" s="25">
+        <v>14790.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>12840</v>
+        <v>12840.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20483,39 +20492,39 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>-4.9347368421052633E-2</v>
-      </c>
-      <c r="E23" s="26">
+        <v>-0.04934736842105263</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
-        <v>5.1377447072371331E-3</v>
-      </c>
-      <c r="F23" s="26">
+        <v>0.005137744707237133</v>
+      </c>
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>9.8528245351194144E-2</v>
-      </c>
-      <c r="G23" s="26">
+        <v>0.09852824535119414</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>3.6421981548335342E-2</v>
-      </c>
-      <c r="H23" s="26">
+        <v>0.03642198154833534</v>
+      </c>
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-2.1673504141187399E-3</v>
-      </c>
-      <c r="I23" s="26">
+        <v>-0.00216735041411874</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.15925839733147157</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-7.2938972162740904E-3</v>
-      </c>
-      <c r="K23" s="26">
+        <v>-0.00729389721627409</v>
+      </c>
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-3.0333670374115269E-3</v>
-      </c>
-      <c r="L23" s="26">
+        <v>-0.003033367037411527</v>
+      </c>
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.13184584178498987</v>
       </c>
@@ -20537,45 +20546,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
-        <v>13656</v>
-      </c>
-      <c r="D25" s="62">
+        <v>13656.0</v>
+      </c>
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
-        <v>11784</v>
-      </c>
-      <c r="E25" s="62">
+        <v>11784.0</v>
+      </c>
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>13212</v>
-      </c>
-      <c r="F25" s="62">
+        <v>13212.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
-        <v>14810</v>
-      </c>
-      <c r="G25" s="62">
+        <v>14810.0</v>
+      </c>
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
-        <v>14259</v>
-      </c>
-      <c r="H25" s="62">
+        <v>14259.0</v>
+      </c>
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
-        <v>14501</v>
-      </c>
-      <c r="I25" s="62">
+        <v>14501.0</v>
+      </c>
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
-        <v>16116</v>
-      </c>
-      <c r="J25" s="62">
+        <v>16116.0</v>
+      </c>
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
-        <v>15428</v>
-      </c>
-      <c r="K25" s="62">
+        <v>15428.0</v>
+      </c>
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
-        <v>14695</v>
-      </c>
-      <c r="L25" s="62">
+        <v>14695.0</v>
+      </c>
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>15926</v>
+        <v>15926.0</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20583,84 +20592,84 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
         <v>-0.13708260105448156</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
         <v>0.12118126272912423</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
         <v>0.12095065092340297</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
-        <v>-3.7204591492234977E-2</v>
-      </c>
-      <c r="H26" s="63">
+        <v>-0.03720459149223498</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>1.6971737148467635E-2</v>
-      </c>
-      <c r="I26" s="63">
+        <v>0.016971737148467635</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
         <v>0.11137162954279015</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
-        <v>-4.2690493919086622E-2</v>
-      </c>
-      <c r="K26" s="63">
+        <v>-0.04269049391908662</v>
+      </c>
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
-        <v>-4.7511018926626909E-2</v>
-      </c>
-      <c r="L26" s="63">
+        <v>-0.04751101892662691</v>
+      </c>
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
-        <v>8.3769989792446417E-2</v>
+        <v>0.08376998979244642</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" thickBot="1">
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.2053819408727138</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.16658181663909041</v>
-      </c>
-      <c r="E28" s="24">
+        <v>0.1665818166390904</v>
+      </c>
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.18268546205325359</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0.1826854620532536</v>
+      </c>
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>0.21806404451032549</v>
-      </c>
-      <c r="G28" s="24">
+        <v>0.2180640445103255</v>
+      </c>
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.2001666493073638</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>2.2298803973241437E-3</v>
-      </c>
-      <c r="I28" s="24">
+        <v>0.0022298803973241437</v>
+      </c>
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.22389411220715166</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.22745988925173932</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.21259384158336345</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.22910565005721822</v>
       </c>
@@ -20669,43 +20678,43 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
         <v>1.1895221877191224</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.4375397937094103</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2634450506625097</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.160722599869634</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3444687272348839</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>117.19090909090909</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2859478530246966</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>1.3228999464954521</v>
-      </c>
-      <c r="K29" s="24">
+        <v>1.322899946495452</v>
+      </c>
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3964686998394864</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.0870301388418557</v>
       </c>
@@ -20754,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
-        <v>56521.939020715647</v>
-      </c>
-      <c r="D36" s="21">
+        <v>56521.93902071565</v>
+      </c>
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
-        <v>58833.686505555372</v>
-      </c>
-      <c r="E36" s="21">
+        <v>58833.68650555537</v>
+      </c>
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
-        <v>60828.148487211183</v>
-      </c>
-      <c r="F36" s="21">
+        <v>60828.14848721118</v>
+      </c>
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>62652.992901039222</v>
-      </c>
-      <c r="G36" s="21">
+        <v>62652.99290103922</v>
+      </c>
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>64532.582646058414</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>66468.560082167824</v>
-      </c>
-      <c r="I36" s="21">
+        <v>66468.56008216782</v>
+      </c>
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>68462.616840062343</v>
-      </c>
-      <c r="J36" s="21">
+        <v>68462.61684006234</v>
+      </c>
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>70516.495299356568</v>
-      </c>
-      <c r="K36" s="21">
+        <v>70516.49529935657</v>
+      </c>
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>72631.990111052466</v>
-      </c>
-      <c r="L36" s="21">
+        <v>72631.99011105247</v>
+      </c>
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>74810.949765680693</v>
+        <v>74810.94976568069</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>9.6299998462200165E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>4.0900003165006638E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>3.3900000154972076E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="C37" s="68" t="n">
+        <v>0.09629999846220016</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.04090000316500664</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.033900000154972076</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20854,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
         <v>10559.221138174498</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
         <v>10991.093316145882</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
         <v>11363.691381266519</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
         <v>11704.602115084588</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
         <v>12055.740170688603</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>12417.412367725279</v>
-      </c>
-      <c r="I39" s="21">
+        <v>12417.41236772528</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
         <v>12789.934730430534</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
         <v>13173.632763767166</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
-        <v>13568.841737846609</v>
-      </c>
-      <c r="L39" s="21">
+        <v>13568.84173784661</v>
+      </c>
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
         <v>13975.906980883421</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
-        <v>-0.10605984268756349</v>
-      </c>
-      <c r="D40" s="20">
+        <v>-0.1060598426875635</v>
+      </c>
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>4.0900003165010516E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.040900003165010516</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>3.3900000154970113E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.03390000015497011</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329449759E-2</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.02999999932944976</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329449824E-2</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.029999999329449824</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.999999932944955E-2</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.02999999932944955</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329449346E-2</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.029999999329449346</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329450605E-2</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.029999999329450605</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329450567E-2</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.029999999329450567</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.999999932945006E-2</v>
+        <v>0.02999999932945006</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20955,180 +20964,177 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>13478.31195253497</v>
-      </c>
-      <c r="D42" s="21">
+        <v>13478.311952534996</v>
+      </c>
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>14029.57495405265</v>
-      </c>
-      <c r="E42" s="21">
+        <v>14029.574954052698</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
         <v>14505.177547169202</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>14940.332863857828</v>
-      </c>
-      <c r="G42" s="21">
+        <v>14940.332863857868</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>15388.542839755319</v>
-      </c>
-      <c r="H42" s="21">
+        <v>15388.54283975534</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>15850.199114629184</v>
-      </c>
-      <c r="I42" s="21">
+        <v>15850.199114629238</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>16325.705077439699</v>
-      </c>
-      <c r="J42" s="21">
+        <v>16325.705077439683</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>16815.476218815696</v>
-      </c>
-      <c r="K42" s="21">
+        <v>16815.47621881577</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>17319.940494104561</v>
-      </c>
-      <c r="L42" s="21">
+        <v>17319.940494104576</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>17839.538697313812</v>
+        <v>17839.538697313816</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>4.9712768889016379E-2</v>
-      </c>
-      <c r="D43" s="20">
+        <v>0.04971276888901838</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>4.0900003165010572E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.040900003165012105</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>3.3900000154970231E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.03390000015496674</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449779E-2</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.029999999329452538</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449755E-2</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.029999999329448405</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449547E-2</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.029999999329451715</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449432E-2</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.029999999329444953</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.999999932945047E-2</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.029999999329455913</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329450688E-2</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.02999999932944706</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449994E-2</v>
+        <v>0.029999999329449314</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
-        <f>L25*(1+C46)</f>
-        <v>16563.039985761043</v>
-      </c>
-      <c r="D45" s="21">
-        <f>C45*(1+D46)</f>
-        <v>17225.561570382924</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>17914.584017797359</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="C45" s="60" t="n">
+        <v>19486.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>20415.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>20814.0</v>
+      </c>
+      <c r="F45" s="21" t="n">
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>21646.559981390827</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>18631.167362492404</v>
-      </c>
-      <c r="G45" s="21">
+        <v>22512.42236129289</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>19376.41404033453</v>
-      </c>
-      <c r="H45" s="21">
+        <v>23412.919235616933</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>20151.47058462401</v>
-      </c>
-      <c r="I45" s="21">
+        <v>24349.435984108786</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>20957.529389992134</v>
-      </c>
-      <c r="J45" s="21">
+        <v>25323.413401703052</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>21795.830546854286</v>
-      </c>
-      <c r="K45" s="21">
+        <v>26336.34991513032</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>22667.663749241474</v>
-      </c>
-      <c r="L45" s="21">
-        <f t="shared" si="8"/>
-        <v>23574.370278944683</v>
+        <v>27389.803888188973</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>3.9999999105930328E-2</v>
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21178,43 +21184,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.0959111265228183</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.2010211972365126</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.3162124932412504</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.4424519162114262</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
-        <v>1.5807991044502621</v>
-      </c>
-      <c r="H51" s="61">
+        <v>1.580799104450262</v>
+      </c>
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.732415327364349</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.8985732330172609</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>2.0806675305820153</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>2.2802266973595873</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>2.4989258086307506</v>
       </c>
@@ -21236,45 +21242,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>12298.727174437839</v>
-      </c>
-      <c r="D53" s="21">
+        <v>12298.727174437847</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>11681.37164134486</v>
-      </c>
-      <c r="E53" s="21">
+        <v>11681.371641344927</v>
+      </c>
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>11020.391936448917</v>
-      </c>
-      <c r="F53" s="21">
+        <v>11020.39193644892</v>
+      </c>
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>10357.595075403513</v>
-      </c>
-      <c r="G53" s="21">
+        <v>10357.595075403535</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9734.6606513335737</v>
-      </c>
-      <c r="H53" s="21">
+        <v>9734.660651333576</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9149.1912269924669</v>
-      </c>
-      <c r="I53" s="21">
+        <v>9149.19122699247</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>8598.9335536425278</v>
-      </c>
-      <c r="J53" s="21">
+        <v>8598.933553642533</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>8081.7698991592297</v>
-      </c>
-      <c r="K53" s="21">
+        <v>8081.769899159261</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>7595.7098976870902</v>
-      </c>
-      <c r="L53" s="21">
+        <v>7595.7098976870975</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>7138.882889479909</v>
+        <v>7138.882889479906</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21294,7 +21300,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>2.7386005980334707</v>
       </c>
@@ -21353,18 +21359,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>103190.50508050065</v>
+        <v>103190.5050805007</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>37680.012614690691</v>
+        <v>37680.01261469083</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21372,9 +21378,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>198847.73902643059</v>
+        <v>198847.73902643076</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21384,9 +21390,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>48.395053472133569</v>
+        <v>48.39505347213367</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21423,18 +21429,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>271341.00730639778</v>
+        <v>315256.64902208303</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>99080.167988439833</v>
+        <v>115115.96442667178</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21445,9 +21451,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>194737.40193436976</v>
+        <v>210773.19837260185</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21455,9 +21461,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>47.394690157304339</v>
+        <v>51.2974412265199</v>
       </c>
     </row>
   </sheetData>
@@ -21481,7 +21487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21495,7 +21501,7 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="78" t="n">
         <v>3.75</v>
       </c>
     </row>
@@ -21503,7 +21509,7 @@
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21511,7 +21517,7 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="78" t="n">
         <v>7.320000171661377</v>
       </c>
     </row>
@@ -21519,7 +21525,7 @@
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21533,7 +21539,7 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
         <v>53.457014215478054</v>
       </c>
@@ -21559,17 +21565,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="117" t="n">
         <v>1.5199999809265137</v>
       </c>
     </row>
@@ -21646,7 +21652,7 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
         <v>1.5199999809265137</v>
       </c>
@@ -21655,103 +21661,103 @@
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
         <v>1.5579999810159184</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
         <v>1.5969499811217198</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
         <v>1.6368737312446748</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
         <v>1.6777955751355713</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>1.7197404651389885</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>1.7627339774081197</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
         <v>1.8068023274999943</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
-        <v>1.8519723863605779</v>
-      </c>
-      <c r="K7" s="90">
+        <v>1.851972386360578</v>
+      </c>
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
         <v>1.8982716967095097</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
-        <v>1.9457284898344109</v>
-      </c>
-      <c r="M7" s="159">
+        <v>1.945728489834411</v>
+      </c>
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>28.124947537544831</v>
+        <v>28.12494753754483</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>2.500000037252903E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.02500000037252903</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
         <v>1.4216481093309512</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
         <v>1.3296601132404844</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
         <v>1.2436242169482628</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
         <v>1.1631552887684917</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
         <v>1.0878931170302304</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
         <v>1.0175007976233366</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
         <v>0.9516632258786113</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
-        <v>0.89008568603102689</v>
-      </c>
-      <c r="K8" s="90">
+        <v>0.8900856860310269</v>
+      </c>
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>0.83249253195203421</v>
-      </c>
-      <c r="L8" s="90">
+        <v>0.8324925319520342</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
-        <v>0.77862595324530404</v>
-      </c>
-      <c r="M8" s="159">
+        <v>0.778625953245304</v>
+      </c>
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
         <v>11.25481494504851</v>
       </c>
@@ -21759,9 +21765,9 @@
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>9.5911126522818302E-2</v>
+        <v>0.0959111265228183</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21772,9 +21778,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>21.971163985097199</v>
+        <v>21.9711639850972</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21867,7 +21873,7 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
         <v>1.5199999809265137</v>
       </c>
@@ -21876,47 +21882,47 @@
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
         <v>1.5617999801754938</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>1.604749479397592</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>1.6488800898419</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
         <v>1.6942242920668527</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>1.740815459846232</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
         <v>1.7886878847326024</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
         <v>1.8378768012962141</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
         <v>1.8884184130579937</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
         <v>1.9403499191356914</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
-        <v>1.9937095416227899</v>
-      </c>
-      <c r="M16" s="159">
+        <v>1.99370954162279</v>
+      </c>
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>29.944493730489448</v>
       </c>
@@ -21924,55 +21930,55 @@
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>2.7499999850988388E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.027499999850988388</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
-        <v>1.4251155430193261</v>
-      </c>
-      <c r="D17" s="90">
+        <v>1.425115543019326</v>
+      </c>
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
         <v>1.3361541687107927</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
         <v>1.2527461168381988</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
         <v>1.1745447269512421</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
         <v>1.1012249785222503</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
         <v>1.0324821400961983</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
         <v>0.9680305027662327</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
-        <v>0.90760219271059961</v>
-      </c>
-      <c r="K17" s="90">
+        <v>0.9076021927105996</v>
+      </c>
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
-        <v>0.85094605785579847</v>
-      </c>
-      <c r="L17" s="90">
+        <v>0.8509460578557985</v>
+      </c>
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
-        <v>0.79782662403859606</v>
-      </c>
-      <c r="M17" s="159">
+        <v>0.797826624038596</v>
+      </c>
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
         <v>11.982946283185994</v>
       </c>
@@ -21980,9 +21986,9 @@
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>9.5911126522818302E-2</v>
+        <v>0.0959111265228183</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21993,9 +21999,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>22.829619334695199</v>
+        <v>22.8296193346952</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22082,7 +22088,7 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
         <v>1.5199999809265137</v>
       </c>
@@ -22091,47 +22097,47 @@
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
         <v>1.5655999793350692</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
         <v>1.612567977665309</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
         <v>1.6609450159139618</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>1.710773365277632</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>1.7620965650887999</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>1.8149594608598902</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
         <v>1.8694082434686656</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>1.9254904895191984</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>1.9832552029136383</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
         <v>2.0427528576711773</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
         <v>31.922310110987993</v>
       </c>
@@ -22139,55 +22145,55 @@
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>2.9999999329447746E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
-        <v>1.4285829767077101</v>
-      </c>
-      <c r="D26" s="90">
+        <v>1.42858297670771</v>
+      </c>
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
         <v>1.3426640440449749</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
         <v>1.2619125137034568</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
         <v>1.1860176038109753</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
         <v>1.1146872237769823</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
         <v>1.0476468501471414</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
-        <v>0.98463847006720917</v>
-      </c>
-      <c r="J26" s="90">
+        <v>0.9846384700672092</v>
+      </c>
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
-        <v>0.92541958828981552</v>
-      </c>
-      <c r="K26" s="90">
+        <v>0.9254195882898155</v>
+      </c>
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
-        <v>0.86976229390269355</v>
-      </c>
-      <c r="L26" s="90">
+        <v>0.8697622939026936</v>
+      </c>
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
-        <v>0.81745238318638869</v>
-      </c>
-      <c r="M26" s="159">
+        <v>0.8174523831863887</v>
+      </c>
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
         <v>12.774412910033277</v>
       </c>
@@ -22195,9 +22201,9 @@
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>9.5911126522818302E-2</v>
+        <v>0.0959111265228183</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22208,9 +22214,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>23.753196857670599</v>
+        <v>23.7531968576706</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22253,12 +22259,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22301,38 +22307,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
-        <v>46061</v>
-      </c>
-      <c r="D3" s="110">
-        <v>48607</v>
-      </c>
-      <c r="E3" s="110">
-        <v>47142</v>
-      </c>
-      <c r="F3" s="110">
-        <v>49161</v>
-      </c>
-      <c r="G3" s="110">
-        <v>49247</v>
-      </c>
-      <c r="H3" s="110">
-        <v>48005</v>
-      </c>
-      <c r="I3" s="110">
-        <v>49330</v>
-      </c>
-      <c r="J3" s="110">
-        <v>51904</v>
-      </c>
-      <c r="K3" s="110">
-        <v>49301</v>
-      </c>
-      <c r="L3" s="110">
-        <v>49818</v>
-      </c>
-      <c r="M3" s="110">
-        <v>51557</v>
+      <c r="C3" s="120" t="n">
+        <v>46061.0</v>
+      </c>
+      <c r="D3" s="110" t="n">
+        <v>48607.0</v>
+      </c>
+      <c r="E3" s="110" t="n">
+        <v>47142.0</v>
+      </c>
+      <c r="F3" s="110" t="n">
+        <v>49161.0</v>
+      </c>
+      <c r="G3" s="110" t="n">
+        <v>49247.0</v>
+      </c>
+      <c r="H3" s="110" t="n">
+        <v>48005.0</v>
+      </c>
+      <c r="I3" s="110" t="n">
+        <v>49330.0</v>
+      </c>
+      <c r="J3" s="110" t="n">
+        <v>51904.0</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>49301.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
+        <v>49818.0</v>
+      </c>
+      <c r="M3" s="110" t="n">
+        <v>51557.0</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22341,45 +22347,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>5.5274527257332666E-2</v>
-      </c>
-      <c r="E4" s="121">
+        <v>0.055274527257332666</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-3.0139691813936265E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>-0.030139691813936265</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>4.2828051419116712E-2</v>
-      </c>
-      <c r="G4" s="121">
+        <v>0.04282805141911671</v>
+      </c>
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>1.7493541628526678E-3</v>
-      </c>
-      <c r="H4" s="121">
+        <v>0.0017493541628526678</v>
+      </c>
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-2.5219810343777287E-2</v>
-      </c>
-      <c r="I4" s="121">
+        <v>-0.025219810343777287</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>2.7601291532132071E-2</v>
-      </c>
-      <c r="J4" s="121">
+        <v>0.02760129153213207</v>
+      </c>
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>5.2179201297384958E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>0.05217920129738496</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-5.0150277435265102E-2</v>
-      </c>
-      <c r="L4" s="121">
+        <v>-0.0501502774352651</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>1.0486602705827469E-2</v>
-      </c>
-      <c r="M4" s="121">
+        <v>0.010486602705827469</v>
+      </c>
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>3.490706170460476E-2</v>
+        <v>0.03490706170460476</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22402,38 +22408,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>8041</v>
-      </c>
-      <c r="D6" s="110">
-        <v>9983</v>
-      </c>
-      <c r="E6" s="110">
-        <v>7853</v>
-      </c>
-      <c r="F6" s="110">
-        <v>8981</v>
-      </c>
-      <c r="G6" s="110">
-        <v>10739</v>
-      </c>
-      <c r="H6" s="110">
-        <v>9609</v>
-      </c>
-      <c r="I6" s="110">
-        <v>110</v>
-      </c>
-      <c r="J6" s="110">
-        <v>11621</v>
-      </c>
-      <c r="K6" s="110">
-        <v>11214</v>
-      </c>
-      <c r="L6" s="110">
-        <v>10591</v>
-      </c>
-      <c r="M6" s="110">
-        <v>11812</v>
+      <c r="C6" s="110" t="n">
+        <v>8041.0</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>9983.0</v>
+      </c>
+      <c r="E6" s="110" t="n">
+        <v>7853.0</v>
+      </c>
+      <c r="F6" s="110" t="n">
+        <v>8981.0</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>10739.0</v>
+      </c>
+      <c r="H6" s="110" t="n">
+        <v>9609.0</v>
+      </c>
+      <c r="I6" s="110" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="J6" s="110" t="n">
+        <v>11621.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
+        <v>11214.0</v>
+      </c>
+      <c r="L6" s="110" t="n">
+        <v>10591.0</v>
+      </c>
+      <c r="M6" s="110" t="n">
+        <v>11812.0</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22442,43 +22448,43 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>0.24151224972018406</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
-        <v>-0.21336271661825101</v>
-      </c>
-      <c r="F7" s="121">
+        <v>-0.213362716618251</v>
+      </c>
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>0.14363937348783903</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>0.19574657610511079</v>
-      </c>
-      <c r="H7" s="121">
+        <v>0.1957465761051108</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>-0.10522395008846261</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
-        <v>-0.98855239879279844</v>
-      </c>
-      <c r="J7" s="121">
+        <v>-0.9885523987927984</v>
+      </c>
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
         <v>104.64545454545454</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
-        <v>-3.502280354530591E-2</v>
-      </c>
-      <c r="L7" s="121">
+        <v>-0.03502280354530591</v>
+      </c>
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
-        <v>-5.5555555555555552E-2</v>
-      </c>
-      <c r="M7" s="121">
+        <v>-0.05555555555555555</v>
+      </c>
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>0.11528656406382778</v>
       </c>
@@ -22501,38 +22507,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
-        <v>12273</v>
-      </c>
-      <c r="D9" s="110">
-        <v>13656</v>
-      </c>
-      <c r="E9" s="110">
-        <v>11784</v>
-      </c>
-      <c r="F9" s="110">
-        <v>13212</v>
-      </c>
-      <c r="G9" s="110">
-        <v>14810</v>
-      </c>
-      <c r="H9" s="110">
-        <v>14259</v>
-      </c>
-      <c r="I9" s="110">
-        <v>14501</v>
-      </c>
-      <c r="J9" s="110">
-        <v>16116</v>
-      </c>
-      <c r="K9" s="110">
-        <v>15428</v>
-      </c>
-      <c r="L9" s="110">
-        <v>14695</v>
-      </c>
-      <c r="M9" s="110">
-        <v>15926</v>
+      <c r="C9" s="110" t="n">
+        <v>12273.0</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>13656.0</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>11784.0</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>13212.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>14810.0</v>
+      </c>
+      <c r="H9" s="110" t="n">
+        <v>14259.0</v>
+      </c>
+      <c r="I9" s="110" t="n">
+        <v>14501.0</v>
+      </c>
+      <c r="J9" s="110" t="n">
+        <v>16116.0</v>
+      </c>
+      <c r="K9" s="110" t="n">
+        <v>15428.0</v>
+      </c>
+      <c r="L9" s="110" t="n">
+        <v>14695.0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>15926.0</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22541,45 +22547,45 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
         <v>0.11268638474700562</v>
       </c>
-      <c r="E10" s="121">
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>-0.13708260105448156</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
         <v>0.12118126272912423</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
         <v>0.12095065092340297</v>
       </c>
-      <c r="H10" s="121">
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>-3.7204591492234977E-2</v>
-      </c>
-      <c r="I10" s="121">
+        <v>-0.03720459149223498</v>
+      </c>
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>1.6971737148467635E-2</v>
-      </c>
-      <c r="J10" s="121">
+        <v>0.016971737148467635</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>0.11137162954279015</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
-        <v>-4.2690493919086622E-2</v>
-      </c>
-      <c r="L10" s="121">
+        <v>-0.04269049391908662</v>
+      </c>
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
-        <v>-4.7511018926626909E-2</v>
-      </c>
-      <c r="M10" s="121">
+        <v>-0.04751101892662691</v>
+      </c>
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
-        <v>8.3769989792446417E-2</v>
+        <v>0.08376998979244642</v>
       </c>
       <c r="Q10" s="107"/>
     </row>
@@ -22592,38 +22598,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>5404</v>
-      </c>
-      <c r="D12" s="110">
-        <v>5380</v>
-      </c>
-      <c r="E12" s="110">
-        <v>5281</v>
-      </c>
-      <c r="F12" s="110">
-        <v>5146</v>
-      </c>
-      <c r="G12" s="110">
-        <v>5088</v>
-      </c>
-      <c r="H12" s="110">
-        <v>5049</v>
-      </c>
-      <c r="I12" s="110">
-        <v>4881</v>
-      </c>
-      <c r="J12" s="110">
-        <v>4453</v>
-      </c>
-      <c r="K12" s="110">
-        <v>4254</v>
-      </c>
-      <c r="L12" s="110">
-        <v>4236</v>
-      </c>
-      <c r="M12" s="110">
-        <v>4192</v>
+      <c r="C12" s="110" t="n">
+        <v>5404.0</v>
+      </c>
+      <c r="D12" s="110" t="n">
+        <v>5380.0</v>
+      </c>
+      <c r="E12" s="110" t="n">
+        <v>5281.0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>5146.0</v>
+      </c>
+      <c r="G12" s="110" t="n">
+        <v>5088.0</v>
+      </c>
+      <c r="H12" s="110" t="n">
+        <v>5049.0</v>
+      </c>
+      <c r="I12" s="110" t="n">
+        <v>4881.0</v>
+      </c>
+      <c r="J12" s="110" t="n">
+        <v>4453.0</v>
+      </c>
+      <c r="K12" s="110" t="n">
+        <v>4254.0</v>
+      </c>
+      <c r="L12" s="110" t="n">
+        <v>4236.0</v>
+      </c>
+      <c r="M12" s="110" t="n">
+        <v>4192.0</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22632,45 +22638,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-4.4411547002220575E-3</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.0044411547002220575</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-1.8401486988847585E-2</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.018401486988847585</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-2.5563340276462791E-2</v>
-      </c>
-      <c r="G13" s="121">
+        <v>-0.02556334027646279</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-1.1270890011659542E-2</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-0.011270890011659542</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-7.6650943396226415E-3</v>
-      </c>
-      <c r="I13" s="121">
+        <v>-0.0076650943396226415</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-3.3273915626856804E-2</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.033273915626856804</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-8.7686949395615651E-2</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.08768694939561565</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>-4.4688973725578264E-2</v>
-      </c>
-      <c r="L13" s="121">
+        <v>-0.044688973725578264</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>-4.2313117066290554E-3</v>
-      </c>
-      <c r="M13" s="121">
+        <v>-0.004231311706629055</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-1.0387157695939566E-2</v>
+        <v>-0.010387157695939566</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22683,38 +22689,38 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>1.4900000095367432</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="110" t="n">
         <v>1.8600000143051147</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="110" t="n">
         <v>1.4900000095367432</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="110" t="n">
         <v>1.75</v>
       </c>
-      <c r="G15" s="110">
-        <v>2.1099998950958252</v>
-      </c>
-      <c r="H15" s="110">
-        <v>1.8999999761581421</v>
-      </c>
-      <c r="I15" s="110">
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="J15" s="110">
-        <v>2.6099998950958252</v>
-      </c>
-      <c r="K15" s="110">
-        <v>2.6400001049041748</v>
-      </c>
-      <c r="L15" s="110">
+      <c r="G15" s="110" t="n">
+        <v>2.109999895095825</v>
+      </c>
+      <c r="H15" s="110" t="n">
+        <v>1.899999976158142</v>
+      </c>
+      <c r="I15" s="110" t="n">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="J15" s="110" t="n">
+        <v>2.609999895095825</v>
+      </c>
+      <c r="K15" s="110" t="n">
+        <v>2.640000104904175</v>
+      </c>
+      <c r="L15" s="110" t="n">
         <v>2.5</v>
       </c>
-      <c r="M15" s="110">
-        <v>2.8199999332427979</v>
+      <c r="M15" s="110" t="n">
+        <v>2.819999933242798</v>
       </c>
       <c r="Q15" s="107"/>
     </row>
@@ -22722,45 +22728,45 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
-        <v>0.24832214926187129</v>
-      </c>
-      <c r="E16" s="121">
+        <v>0.2483221492618713</v>
+      </c>
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
-        <v>-0.19892473221652249</v>
-      </c>
-      <c r="F16" s="121">
+        <v>-0.1989247322165225</v>
+      </c>
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>0.17449663677793822</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
         <v>0.20571422576904286</v>
       </c>
-      <c r="H16" s="121">
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>-9.952603288074828E-2</v>
-      </c>
-      <c r="I16" s="121">
+        <v>-0.09952603288074828</v>
+      </c>
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>-0.98947368431372262</v>
-      </c>
-      <c r="J16" s="121">
+        <v>-0.9894736843137226</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
         <v>129.49999767169328</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>1.1494333721897754E-2</v>
-      </c>
-      <c r="L16" s="121">
+        <v>0.011494333721897754</v>
+      </c>
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
-        <v>-5.303034065949664E-2</v>
-      </c>
-      <c r="M16" s="121">
+        <v>-0.05303034065949664</v>
+      </c>
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
-        <v>0.12799997329711921</v>
+        <v>0.1279999732971192</v>
       </c>
       <c r="Q16" s="107"/>
     </row>
@@ -22808,38 +22814,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
-        <v>10415</v>
-      </c>
-      <c r="D20" s="128">
-        <v>11875</v>
-      </c>
-      <c r="E20" s="128">
-        <v>11289</v>
-      </c>
-      <c r="F20" s="128">
-        <v>11347</v>
-      </c>
-      <c r="G20" s="128">
-        <v>12465</v>
-      </c>
-      <c r="H20" s="128">
-        <v>12919</v>
-      </c>
-      <c r="I20" s="128">
-        <v>12891</v>
-      </c>
-      <c r="J20" s="128">
-        <v>14944</v>
-      </c>
-      <c r="K20" s="128">
-        <v>14835</v>
-      </c>
-      <c r="L20" s="128">
-        <v>14790</v>
-      </c>
-      <c r="M20" s="128">
-        <v>12840</v>
+      <c r="C20" s="110" t="n">
+        <v>10415.0</v>
+      </c>
+      <c r="D20" s="128" t="n">
+        <v>11875.0</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>11289.0</v>
+      </c>
+      <c r="F20" s="128" t="n">
+        <v>11347.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>12465.0</v>
+      </c>
+      <c r="H20" s="128" t="n">
+        <v>12919.0</v>
+      </c>
+      <c r="I20" s="128" t="n">
+        <v>12891.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>14944.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>14835.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>14790.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>12840.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22868,40 +22874,41 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>-4.9347368421052633E-2</v>
-      </c>
-      <c r="F21" s="131">
+        <v>-0.04934736842105263</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
-        <v>5.1377447072371331E-3</v>
-      </c>
-      <c r="G21" s="131">
+        <v>0.005137744707237133</v>
+      </c>
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>9.8528245351194144E-2</v>
-      </c>
-      <c r="H21" s="131">
+        <v>0.09852824535119414</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
-        <v>3.6421981548335342E-2</v>
-      </c>
-      <c r="I21" s="131">
+        <v>0.03642198154833534</v>
+      </c>
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>-2.1673504141187399E-3</v>
-      </c>
-      <c r="J21" s="131">
+        <v>-0.00216735041411874</v>
+      </c>
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
         <v>0.15925839733147157</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
-        <v>-7.2938972162740904E-3</v>
-      </c>
-      <c r="L21" s="131">
+        <v>-0.00729389721627409</v>
+      </c>
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
-        <v>-3.0333670374115269E-3</v>
-      </c>
-      <c r="M21" s="131">
+        <v>-0.003033367037411527</v>
+      </c>
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
         <v>-0.13184584178498987</v>
       </c>
@@ -22966,38 +22973,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>1501</v>
-      </c>
-      <c r="D23" s="130">
-        <v>3310</v>
-      </c>
-      <c r="E23" s="130">
-        <v>3758</v>
-      </c>
-      <c r="F23" s="130">
-        <v>4086</v>
-      </c>
-      <c r="G23" s="130">
-        <v>4750</v>
-      </c>
-      <c r="H23" s="130">
-        <v>5511</v>
-      </c>
-      <c r="I23" s="130">
-        <v>5968</v>
-      </c>
-      <c r="J23" s="130">
-        <v>5979</v>
-      </c>
-      <c r="K23" s="130">
-        <v>6016</v>
-      </c>
-      <c r="L23" s="130">
-        <v>6163</v>
-      </c>
-      <c r="M23" s="130">
-        <v>6224</v>
+      <c r="C23" s="113" t="n">
+        <v>1501.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>3310.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>3758.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>4086.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>4750.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>5511.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>5968.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>5979.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>6016.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>6163.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>6224.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23023,45 +23030,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
         <v>1.2051965356429046</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
         <v>0.13534743202416918</v>
       </c>
-      <c r="F24" s="121">
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>8.7280468334220332E-2</v>
-      </c>
-      <c r="G24" s="121">
+        <v>0.08728046833422033</v>
+      </c>
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
         <v>0.16250611845325502</v>
       </c>
-      <c r="H24" s="121">
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
         <v>0.16021052631578947</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>8.2925058972963164E-2</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.08292505897296316</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
-        <v>1.8431635388739946E-3</v>
-      </c>
-      <c r="K24" s="121">
+        <v>0.0018431635388739946</v>
+      </c>
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>6.188325806991136E-3</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.006188325806991136</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>2.4434840425531915E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.024434840425531915</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>9.8977770566282663E-3</v>
+        <v>0.009897777056628266</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23198,38 +23205,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
-        <v>61933</v>
-      </c>
-      <c r="D28" s="110">
-        <v>65521</v>
-      </c>
-      <c r="E28" s="110">
-        <v>67114</v>
-      </c>
-      <c r="F28" s="110">
-        <v>73368</v>
-      </c>
-      <c r="G28" s="110">
-        <v>78719</v>
-      </c>
-      <c r="H28" s="110">
-        <v>83703</v>
-      </c>
-      <c r="I28" s="110">
-        <v>61837</v>
-      </c>
-      <c r="J28" s="110">
-        <v>47755</v>
-      </c>
-      <c r="K28" s="110">
-        <v>43573</v>
-      </c>
-      <c r="L28" s="110">
-        <v>39112</v>
-      </c>
-      <c r="M28" s="110">
-        <v>36717</v>
+      <c r="C28" s="110" t="n">
+        <v>61933.0</v>
+      </c>
+      <c r="D28" s="110" t="n">
+        <v>65521.0</v>
+      </c>
+      <c r="E28" s="110" t="n">
+        <v>67114.0</v>
+      </c>
+      <c r="F28" s="110" t="n">
+        <v>73368.0</v>
+      </c>
+      <c r="G28" s="110" t="n">
+        <v>78719.0</v>
+      </c>
+      <c r="H28" s="110" t="n">
+        <v>83703.0</v>
+      </c>
+      <c r="I28" s="110" t="n">
+        <v>61837.0</v>
+      </c>
+      <c r="J28" s="110" t="n">
+        <v>47755.0</v>
+      </c>
+      <c r="K28" s="110" t="n">
+        <v>43573.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
+        <v>39112.0</v>
+      </c>
+      <c r="M28" s="110" t="n">
+        <v>36717.0</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23259,45 +23266,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>5.7933573377682332E-2</v>
-      </c>
-      <c r="E29" s="121">
+        <v>0.05793357337768233</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>2.431281573846553E-2</v>
-      </c>
-      <c r="F29" s="121">
+        <v>0.02431281573846553</v>
+      </c>
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>9.3184730458622647E-2</v>
-      </c>
-      <c r="G29" s="121">
+        <v>0.09318473045862265</v>
+      </c>
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>7.2933704067168245E-2</v>
-      </c>
-      <c r="H29" s="121">
+        <v>0.07293370406716825</v>
+      </c>
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
-        <v>6.3313812421397636E-2</v>
-      </c>
-      <c r="I29" s="121">
+        <v>0.06331381242139764</v>
+      </c>
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>-0.26123316965939092</v>
-      </c>
-      <c r="J29" s="121">
+        <v>-0.2612331696593909</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
         <v>-0.22772773582159547</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>-8.7571981991414513E-2</v>
-      </c>
-      <c r="L29" s="121">
+        <v>-0.08757198199141451</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
         <v>-0.10237991416703004</v>
       </c>
-      <c r="M29" s="121">
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>-6.1234403763550826E-2</v>
+        <v>-0.061234403763550826</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23350,38 +23357,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
-        <v>29826</v>
-      </c>
-      <c r="D31" s="110">
-        <v>35670</v>
-      </c>
-      <c r="E31" s="110">
-        <v>37956</v>
-      </c>
-      <c r="F31" s="110">
-        <v>40005</v>
-      </c>
-      <c r="G31" s="110">
-        <v>42933</v>
-      </c>
-      <c r="H31" s="110">
-        <v>46115</v>
-      </c>
-      <c r="I31" s="110">
-        <v>46947</v>
-      </c>
-      <c r="J31" s="110">
-        <v>50038</v>
-      </c>
-      <c r="K31" s="110">
-        <v>51280</v>
-      </c>
-      <c r="L31" s="110">
-        <v>58385</v>
-      </c>
-      <c r="M31" s="110">
-        <v>57285</v>
+      <c r="C31" s="110" t="n">
+        <v>29826.0</v>
+      </c>
+      <c r="D31" s="110" t="n">
+        <v>35670.0</v>
+      </c>
+      <c r="E31" s="110" t="n">
+        <v>37956.0</v>
+      </c>
+      <c r="F31" s="110" t="n">
+        <v>40005.0</v>
+      </c>
+      <c r="G31" s="110" t="n">
+        <v>42933.0</v>
+      </c>
+      <c r="H31" s="110" t="n">
+        <v>46115.0</v>
+      </c>
+      <c r="I31" s="110" t="n">
+        <v>46947.0</v>
+      </c>
+      <c r="J31" s="110" t="n">
+        <v>50038.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
+        <v>51280.0</v>
+      </c>
+      <c r="L31" s="110" t="n">
+        <v>58385.0</v>
+      </c>
+      <c r="M31" s="110" t="n">
+        <v>57285.0</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23411,45 +23418,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
         <v>0.19593643130154897</v>
       </c>
-      <c r="E32" s="121">
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>6.40874684608915E-2</v>
-      </c>
-      <c r="F32" s="121">
+        <v>0.0640874684608915</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>5.3983559911476443E-2</v>
-      </c>
-      <c r="G32" s="121">
+        <v>0.05398355991147644</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>7.3190851143607044E-2</v>
-      </c>
-      <c r="H32" s="121">
+        <v>0.07319085114360704</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>7.4115482263061055E-2</v>
-      </c>
-      <c r="I32" s="121">
+        <v>0.07411548226306106</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>1.8041851892009107E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.018041851892009107</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>6.5840202781860396E-2</v>
-      </c>
-      <c r="K32" s="121">
+        <v>0.0658402027818604</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>2.4821135936688117E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.024821135936688117</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
         <v>0.13855304212168487</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>-1.8840455596471697E-2</v>
+        <v>-0.018840455596471697</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23503,45 +23510,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
-        <v>101191</v>
-      </c>
-      <c r="E34" s="111">
+        <v>101191.0</v>
+      </c>
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>105070</v>
-      </c>
-      <c r="F34" s="111">
+        <v>105070.0</v>
+      </c>
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>113373</v>
-      </c>
-      <c r="G34" s="111">
+        <v>113373.0</v>
+      </c>
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>121652</v>
-      </c>
-      <c r="H34" s="111">
+        <v>121652.0</v>
+      </c>
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>129818</v>
-      </c>
-      <c r="I34" s="111">
+        <v>129818.0</v>
+      </c>
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>108784</v>
-      </c>
-      <c r="J34" s="111">
+        <v>108784.0</v>
+      </c>
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>97793</v>
-      </c>
-      <c r="K34" s="111">
+        <v>97793.0</v>
+      </c>
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>94853</v>
-      </c>
-      <c r="L34" s="111">
+        <v>94853.0</v>
+      </c>
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>97497</v>
-      </c>
-      <c r="M34" s="111">
+        <v>97497.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>94002</v>
+        <v>94002.0</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23594,38 +23601,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
-        <v>17731</v>
-      </c>
-      <c r="D36" s="118">
-        <v>21996</v>
-      </c>
-      <c r="E36" s="110">
-        <v>19809</v>
-      </c>
-      <c r="F36" s="110">
-        <v>23412</v>
-      </c>
-      <c r="G36" s="110">
-        <v>24911</v>
-      </c>
-      <c r="H36" s="110">
-        <v>27583</v>
-      </c>
-      <c r="I36" s="110">
-        <v>27035</v>
-      </c>
-      <c r="J36" s="110">
-        <v>31712</v>
-      </c>
-      <c r="K36" s="110">
-        <v>25331</v>
-      </c>
-      <c r="L36" s="110">
-        <v>26257</v>
-      </c>
-      <c r="M36" s="110">
-        <v>25640</v>
+      <c r="C36" s="113" t="n">
+        <v>17731.0</v>
+      </c>
+      <c r="D36" s="118" t="n">
+        <v>21996.0</v>
+      </c>
+      <c r="E36" s="110" t="n">
+        <v>19809.0</v>
+      </c>
+      <c r="F36" s="110" t="n">
+        <v>23412.0</v>
+      </c>
+      <c r="G36" s="110" t="n">
+        <v>24911.0</v>
+      </c>
+      <c r="H36" s="110" t="n">
+        <v>27583.0</v>
+      </c>
+      <c r="I36" s="110" t="n">
+        <v>27035.0</v>
+      </c>
+      <c r="J36" s="110" t="n">
+        <v>31712.0</v>
+      </c>
+      <c r="K36" s="110" t="n">
+        <v>25331.0</v>
+      </c>
+      <c r="L36" s="110" t="n">
+        <v>26257.0</v>
+      </c>
+      <c r="M36" s="110" t="n">
+        <v>25640.0</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23655,45 +23662,45 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
         <v>0.24053916868760927</v>
       </c>
-      <c r="E37" s="121">
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>-9.9427168576104744E-2</v>
-      </c>
-      <c r="F37" s="121">
+        <v>-0.09942716857610474</v>
+      </c>
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>0.18188702105103741</v>
-      </c>
-      <c r="G37" s="121">
+        <v>0.1818870210510374</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
-        <v>6.4026994703570816E-2</v>
-      </c>
-      <c r="H37" s="121">
+        <v>0.06402699470357082</v>
+      </c>
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
         <v>0.10726185219380996</v>
       </c>
-      <c r="I37" s="121">
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>-1.9867309574738062E-2</v>
-      </c>
-      <c r="J37" s="121">
+        <v>-0.019867309574738062</v>
+      </c>
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
         <v>0.17299796560014796</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
         <v>-0.20121720484359232</v>
       </c>
-      <c r="L37" s="121">
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
-        <v>3.6555998578816473E-2</v>
-      </c>
-      <c r="M37" s="121">
+        <v>0.03655599857881647</v>
+      </c>
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
-        <v>-2.3498495639258103E-2</v>
+        <v>-0.023498495639258103</v>
       </c>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
@@ -23746,38 +23753,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
-        <v>22727</v>
-      </c>
-      <c r="D39" s="110">
-        <v>20067</v>
-      </c>
-      <c r="E39" s="110">
-        <v>28600</v>
-      </c>
-      <c r="F39" s="110">
-        <v>30254</v>
-      </c>
-      <c r="G39" s="110">
-        <v>33156</v>
-      </c>
-      <c r="H39" s="110">
-        <v>36098</v>
-      </c>
-      <c r="I39" s="110">
-        <v>38545</v>
-      </c>
-      <c r="J39" s="110">
-        <v>32510</v>
-      </c>
-      <c r="K39" s="110">
-        <v>31602</v>
-      </c>
-      <c r="L39" s="110">
-        <v>29965</v>
-      </c>
-      <c r="M39" s="110">
-        <v>28589</v>
+      <c r="C39" s="113" t="n">
+        <v>22727.0</v>
+      </c>
+      <c r="D39" s="110" t="n">
+        <v>20067.0</v>
+      </c>
+      <c r="E39" s="110" t="n">
+        <v>28600.0</v>
+      </c>
+      <c r="F39" s="110" t="n">
+        <v>30254.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
+        <v>33156.0</v>
+      </c>
+      <c r="H39" s="110" t="n">
+        <v>36098.0</v>
+      </c>
+      <c r="I39" s="110" t="n">
+        <v>38545.0</v>
+      </c>
+      <c r="J39" s="110" t="n">
+        <v>32510.0</v>
+      </c>
+      <c r="K39" s="110" t="n">
+        <v>31602.0</v>
+      </c>
+      <c r="L39" s="110" t="n">
+        <v>29965.0</v>
+      </c>
+      <c r="M39" s="110" t="n">
+        <v>28589.0</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23807,45 +23814,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
         <v>-0.11704140449685396</v>
       </c>
-      <c r="E40" s="121">
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
         <v>0.4252254945931131</v>
       </c>
-      <c r="F40" s="121">
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
-        <v>5.7832167832167831E-2</v>
-      </c>
-      <c r="G40" s="121">
+        <v>0.05783216783216783</v>
+      </c>
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>9.5921200502412901E-2</v>
-      </c>
-      <c r="H40" s="121">
+        <v>0.0959212005024129</v>
+      </c>
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>8.8732054530100135E-2</v>
-      </c>
-      <c r="I40" s="121">
+        <v>0.08873205453010014</v>
+      </c>
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
-        <v>6.7787689068646462E-2</v>
-      </c>
-      <c r="J40" s="121">
+        <v>0.06778768906864646</v>
+      </c>
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
         <v>-0.15657024257361526</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
-        <v>-2.792986773300523E-2</v>
-      </c>
-      <c r="L40" s="121">
+        <v>-0.02792986773300523</v>
+      </c>
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
-        <v>-5.1800518954496548E-2</v>
-      </c>
-      <c r="M40" s="121">
+        <v>-0.05180051895449655</v>
+      </c>
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>-4.5920240280327047E-2</v>
+        <v>-0.04592024028032705</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23901,45 +23908,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
-        <v>42063</v>
-      </c>
-      <c r="E42" s="111">
+        <v>42063.0</v>
+      </c>
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>48409</v>
-      </c>
-      <c r="F42" s="111">
+        <v>48409.0</v>
+      </c>
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>53666</v>
-      </c>
-      <c r="G42" s="111">
+        <v>53666.0</v>
+      </c>
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>58067</v>
-      </c>
-      <c r="H42" s="111">
+        <v>58067.0</v>
+      </c>
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>63681</v>
-      </c>
-      <c r="I42" s="111">
+        <v>63681.0</v>
+      </c>
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>65580</v>
-      </c>
-      <c r="J42" s="111">
+        <v>65580.0</v>
+      </c>
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>64222</v>
-      </c>
-      <c r="K42" s="111">
+        <v>64222.0</v>
+      </c>
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>56933</v>
-      </c>
-      <c r="L42" s="111">
+        <v>56933.0</v>
+      </c>
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>56222</v>
-      </c>
-      <c r="M42" s="111">
+        <v>56222.0</v>
+      </c>
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>54229</v>
+        <v>54229.0</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -23997,45 +24004,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
-        <v>59128</v>
-      </c>
-      <c r="E44" s="134">
+        <v>59128.0</v>
+      </c>
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>56661</v>
-      </c>
-      <c r="F44" s="134">
+        <v>56661.0</v>
+      </c>
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>59707</v>
-      </c>
-      <c r="G44" s="134">
+        <v>59707.0</v>
+      </c>
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>63585</v>
-      </c>
-      <c r="H44" s="134">
+        <v>63585.0</v>
+      </c>
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>66137</v>
-      </c>
-      <c r="I44" s="134">
+        <v>66137.0</v>
+      </c>
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>43204</v>
-      </c>
-      <c r="J44" s="134">
+        <v>43204.0</v>
+      </c>
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>33571</v>
-      </c>
-      <c r="K44" s="134">
+        <v>33571.0</v>
+      </c>
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>37920</v>
-      </c>
-      <c r="L44" s="134">
+        <v>37920.0</v>
+      </c>
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>41275</v>
-      </c>
-      <c r="M44" s="134">
+        <v>41275.0</v>
+      </c>
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>39773</v>
+        <v>39773.0</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24097,40 +24104,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
-        <v>16297</v>
-      </c>
-      <c r="D46" s="133">
-        <v>12928</v>
-      </c>
-      <c r="E46" s="133">
-        <v>20337</v>
-      </c>
-      <c r="F46" s="133">
-        <v>21457</v>
-      </c>
-      <c r="G46" s="133">
-        <v>24483</v>
-      </c>
-      <c r="H46" s="133">
-        <v>25725</v>
-      </c>
-      <c r="I46" s="133">
-        <v>20331</v>
-      </c>
-      <c r="J46" s="133">
-        <v>14475</v>
-      </c>
-      <c r="K46" s="136">
-        <v>11578</v>
-      </c>
-      <c r="L46" s="133">
-        <v>9018</v>
-      </c>
-      <c r="M46" s="133">
-        <v>8416</v>
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
+        <v>16297.0</v>
+      </c>
+      <c r="D46" s="133" t="n">
+        <v>12928.0</v>
+      </c>
+      <c r="E46" s="133" t="n">
+        <v>20337.0</v>
+      </c>
+      <c r="F46" s="133" t="n">
+        <v>21457.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
+        <v>24483.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
+        <v>25725.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
+        <v>20331.0</v>
+      </c>
+      <c r="J46" s="133" t="n">
+        <v>14475.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>11578.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>9018.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>8416.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24264,43 +24271,43 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.2053819408727138</v>
       </c>
-      <c r="E50" s="126">
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.16658181663909041</v>
-      </c>
-      <c r="F50" s="126">
+        <v>0.1665818166390904</v>
+      </c>
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.18268546205325359</v>
-      </c>
-      <c r="G50" s="126">
+        <v>0.1826854620532536</v>
+      </c>
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>0.21806404451032549</v>
-      </c>
-      <c r="H50" s="126">
+        <v>0.2180640445103255</v>
+      </c>
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.2001666493073638</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>2.2298803973241437E-3</v>
-      </c>
-      <c r="J50" s="126">
+        <v>0.0022298803973241437</v>
+      </c>
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.22389411220715166</v>
       </c>
-      <c r="K50" s="126">
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.22745988925173932</v>
       </c>
-      <c r="L50" s="126">
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.21259384158336345</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.22910565005721822</v>
       </c>
@@ -24332,43 +24339,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
         <v>0.28094718867652807</v>
       </c>
-      <c r="E51" s="126">
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.24996818123965892</v>
       </c>
-      <c r="F51" s="126">
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.26874961860010982</v>
-      </c>
-      <c r="G51" s="126">
+        <v>0.2687496186001098</v>
+      </c>
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.30072897841492885</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.29703155921258201</v>
-      </c>
-      <c r="I51" s="126">
+        <v>0.297031559212582</v>
+      </c>
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.29395905128724914</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.31049630086313196</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.31293482890813573</v>
       </c>
-      <c r="L51" s="126">
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.29497370428359226</v>
       </c>
-      <c r="M51" s="126">
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.3089008282095545</v>
       </c>
@@ -24400,43 +24407,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
         <v>0.24430637562491</v>
       </c>
-      <c r="E52" s="126">
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.23946799032709687</v>
       </c>
-      <c r="F52" s="126">
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.230813042859177</v>
       </c>
-      <c r="G52" s="126">
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.25311186468211261</v>
-      </c>
-      <c r="H52" s="126">
+        <v>0.2531118646821126</v>
+      </c>
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.26911780022914278</v>
-      </c>
-      <c r="I52" s="126">
+        <v>0.2691178002291428</v>
+      </c>
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.26132171092641393</v>
       </c>
-      <c r="J52" s="126">
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.28791615289765721</v>
-      </c>
-      <c r="K52" s="126">
+        <v>0.2879161528976572</v>
+      </c>
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.30090667532098742</v>
-      </c>
-      <c r="L52" s="126">
+        <v>0.3009066753209874</v>
+      </c>
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.29688064554980126</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.24904474659115153</v>
       </c>
@@ -24550,43 +24557,43 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
         <v>0.27873684210526317</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
         <v>0.3328904243068474</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.36009517934255753</v>
-      </c>
-      <c r="G55" s="126">
+        <v>0.3600951793425575</v>
+      </c>
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.38106698756518254</v>
       </c>
-      <c r="H55" s="126">
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.42658100472172766</v>
       </c>
-      <c r="I55" s="126">
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.46295865332402453</v>
-      </c>
-      <c r="J55" s="126">
+        <v>0.4629586533240245</v>
+      </c>
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.40009368308351179</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.4000936830835118</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.40552746882372764</v>
       </c>
-      <c r="L55" s="126">
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.41670047329276538</v>
-      </c>
-      <c r="M55" s="126">
+        <v>0.4167004732927654</v>
+      </c>
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.48473520249221186</v>
       </c>
@@ -24700,43 +24707,43 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
         <v>0.711388851305642</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
-        <v>0.85436190677891322</v>
-      </c>
-      <c r="F58" s="112">
+        <v>0.8543619067789132</v>
+      </c>
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.89882258361666134</v>
-      </c>
-      <c r="G58" s="112">
+        <v>0.8988225836166613</v>
+      </c>
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.91321852638200829</v>
-      </c>
-      <c r="H58" s="112">
+        <v>0.9132185263820083</v>
+      </c>
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>0.9628649621240758</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.5179150078696417</v>
       </c>
-      <c r="J58" s="112">
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.9130201662148878</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.5013976793248944</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.3621320411871594</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.3634626505418248</v>
       </c>
@@ -24768,43 +24775,43 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
         <v>2.9787688670667394</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
         <v>3.3880559341713363</v>
       </c>
-      <c r="F59" s="112">
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>3.1337775499743721</v>
-      </c>
-      <c r="G59" s="112">
+        <v>3.133777549974372</v>
+      </c>
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>3.1600096342981012</v>
       </c>
-      <c r="H59" s="112">
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>3.0345865206830296</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>2.287294248196782</v>
       </c>
-      <c r="J59" s="112">
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.5058968213925328</v>
       </c>
-      <c r="K59" s="112">
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.7201452765386285</v>
       </c>
-      <c r="L59" s="112">
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.4895837300529382</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.4320202808112326</v>
       </c>
@@ -24833,47 +24840,47 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
-        <v>0.94669009958992389</v>
-      </c>
-      <c r="E60" s="112">
+        <v>0.9466900995899239</v>
+      </c>
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>1.7258146639511203</v>
       </c>
-      <c r="F60" s="112">
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.6240538904026642</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.6531397704253883</v>
       </c>
-      <c r="H60" s="112">
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.8041237113402062</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.4020412385352734</v>
       </c>
-      <c r="J60" s="112">
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.89817572598659712</v>
-      </c>
-      <c r="K60" s="112">
+        <v>0.8981757259865971</v>
+      </c>
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.75045372050816694</v>
-      </c>
-      <c r="L60" s="112">
+        <v>0.7504537205081669</v>
+      </c>
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.61367812181013948</v>
-      </c>
-      <c r="M60" s="112">
+        <v>0.6136781218101395</v>
+      </c>
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>0.52844405374858716</v>
+        <v>0.5284440537485872</v>
       </c>
       <c r="O60" s="107"/>
       <c r="P60" s="107"/>
@@ -24956,9 +24963,9 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
-        <v>-7.9250484185511283E-4</v>
+        <v>-7.925048418551128E-4</v>
       </c>
       <c r="O63" s="107"/>
       <c r="P63" s="107"/>
@@ -24988,9 +24995,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>7.8435959217144635E-3</v>
+        <v>0.007843595921714464</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -24998,9 +25005,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>1.5479221284606881</v>
+        <v>1.547922128460688</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25008,9 +25015,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>1.6965539219843784E-2</v>
+        <v>0.016965539219843784</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25018,9 +25025,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>8.8702246389578132E-3</v>
+        <v>0.008870224638957813</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25028,9 +25035,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>5.9094360602989227E-3</v>
+        <v>0.005909436060298923</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25038,9 +25045,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>1.8923905972873856E-2</v>
+        <v>0.018923905972873856</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25048,36 +25055,36 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
-        <v>3.1232616367195876E-2</v>
+        <v>0.031232616367195876</v>
       </c>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>8.4355653455541191E-3</v>
+        <v>0.008435565345554119</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>2.5057833160197697E-2</v>
+        <v>0.025057833160197697</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
-        <v>0.43400309620324828</v>
+        <v>0.4340030962032483</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">
@@ -25123,43 +25130,43 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
-        <v>9.8655018726961892</v>
-      </c>
-      <c r="E76" s="110">
+        <v>9.86550187269619</v>
+      </c>
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>7.4740649091082139</v>
-      </c>
-      <c r="F76" s="110">
+        <v>7.474064909108214</v>
+      </c>
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>7.921639190989036</v>
       </c>
-      <c r="G76" s="110">
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>8.8276394962680431</v>
-      </c>
-      <c r="H76" s="110">
+        <v>8.827639496268043</v>
+      </c>
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>7.4019011231108163</v>
-      </c>
-      <c r="I76" s="110">
+        <v>7.401901123110816</v>
+      </c>
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>0.10111781144285924</v>
       </c>
-      <c r="J76" s="110">
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>11.883263628276053</v>
       </c>
-      <c r="K76" s="110">
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>11.822504296121366</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>10.862898345590121</v>
       </c>
-      <c r="M76" s="110">
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>12.565690091700176</v>
       </c>
@@ -25171,43 +25178,43 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
         <v>16.88370991746719</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>13.859621256243271</v>
-      </c>
-      <c r="F77" s="110">
+        <v>13.85962125624327</v>
+      </c>
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.0417873951128</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>16.889203428481562</v>
-      </c>
-      <c r="H77" s="110">
+        <v>16.88920342848156</v>
+      </c>
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>14.528932367661067</v>
       </c>
-      <c r="I77" s="110">
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>0.2546060549949079</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>34.616186589616035</v>
       </c>
-      <c r="K77" s="110">
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>29.572784810126581</v>
-      </c>
-      <c r="L77" s="110">
+        <v>29.57278481012658</v>
+      </c>
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>25.659600242277406</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>29.698539210016847</v>
       </c>
@@ -25216,37 +25223,37 @@
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
         <v>13.880000114440918</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="40" t="n">
         <v>10.140000343322754</v>
       </c>
-      <c r="F78" s="40">
+      <c r="F78" s="40" t="n">
         <v>10.850000381469727</v>
       </c>
-      <c r="G78" s="40">
-        <v>11.810000419616699</v>
-      </c>
-      <c r="H78" s="40">
+      <c r="G78" s="40" t="n">
+        <v>11.8100004196167</v>
+      </c>
+      <c r="H78" s="40" t="n">
         <v>9.619999885559082</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="40" t="n">
         <v>-0.36000001430511475</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="40" t="n">
         <v>17.739999771118164</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="40" t="n">
         <v>19.770000457763672</v>
       </c>
-      <c r="L78" s="40">
-        <v>19.840000152587891</v>
-      </c>
-      <c r="M78" s="40">
+      <c r="L78" s="40" t="n">
+        <v>19.84000015258789</v>
+      </c>
+      <c r="M78" s="40" t="n">
         <v>22.959999084472656</v>
       </c>
     </row>
@@ -25290,37 +25297,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
-        <v>12.189999580383301</v>
-      </c>
-      <c r="E81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
+        <v>12.1899995803833</v>
+      </c>
+      <c r="E81" s="40" t="n">
         <v>18.920000076293945</v>
       </c>
-      <c r="F81" s="40">
-        <v>14.439999580383301</v>
-      </c>
-      <c r="G81" s="40">
+      <c r="F81" s="40" t="n">
+        <v>14.4399995803833</v>
+      </c>
+      <c r="G81" s="40" t="n">
         <v>14.460000038146973</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="40" t="n">
         <v>19.950000762939453</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="40" t="n">
         <v>139.77000427246094</v>
       </c>
-      <c r="J81" s="40">
+      <c r="J81" s="40" t="n">
         <v>19.030000686645508</v>
       </c>
-      <c r="K81" s="40">
-        <v>18.120000839233398</v>
-      </c>
-      <c r="L81" s="40">
+      <c r="K81" s="40" t="n">
+        <v>18.1200008392334</v>
+      </c>
+      <c r="L81" s="40" t="n">
         <v>23.559999465942383</v>
       </c>
-      <c r="M81" s="40">
+      <c r="M81" s="40" t="n">
         <v>17.200000762939453</v>
       </c>
     </row>
@@ -25328,37 +25335,37 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
-        <v>9.2700004577636719</v>
-      </c>
-      <c r="E82" s="40">
-        <v>11.909999847412109</v>
-      </c>
-      <c r="F82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
+        <v>9.270000457763672</v>
+      </c>
+      <c r="E82" s="40" t="n">
+        <v>11.90999984741211</v>
+      </c>
+      <c r="F82" s="40" t="n">
         <v>10.869999885559082</v>
       </c>
-      <c r="G82" s="40">
+      <c r="G82" s="40" t="n">
         <v>11.329999923706055</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="40" t="n">
         <v>13.539999961853027</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="40" t="n">
         <v>14.449999809265137</v>
       </c>
-      <c r="J82" s="40">
+      <c r="J82" s="40" t="n">
         <v>13.380000114440918</v>
       </c>
-      <c r="K82" s="40">
+      <c r="K82" s="40" t="n">
         <v>11.930000305175781</v>
       </c>
-      <c r="L82" s="40">
+      <c r="L82" s="40" t="n">
         <v>18.149999618530273</v>
       </c>
-      <c r="M82" s="40">
+      <c r="M82" s="40" t="n">
         <v>14.399999618530273</v>
       </c>
     </row>
@@ -25366,7 +25373,7 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
+      <c r="C83" s="110" t="n">
         <v>2.0999999046325684</v>
       </c>
     </row>
